--- a/exercise_OECD_data/2-Final_Data/L_2015.xlsx
+++ b/exercise_OECD_data/2-Final_Data/L_2015.xlsx
@@ -904,7 +904,7 @@
         <v>9981.68575061059</v>
       </c>
       <c r="P10">
-        <v>78.00258980531549</v>
+        <v>78.0025898053155</v>
       </c>
     </row>
     <row r="11">
@@ -1024,7 +1024,7 @@
         <v>25.4335099376049</v>
       </c>
       <c r="D13">
-        <v>0.5742027392550439</v>
+        <v>0.574202739255044</v>
       </c>
       <c r="E13">
         <v>14.5406954473343</v>
@@ -2088,7 +2088,7 @@
         <v>38.9158157622008</v>
       </c>
       <c r="L33">
-        <v>85.3154698240786</v>
+        <v>85.31546982407861</v>
       </c>
       <c r="M33">
         <v>56.9657643703479</v>
@@ -2100,7 +2100,7 @@
         <v>9646.470324929031</v>
       </c>
       <c r="P33">
-        <v>68.11949531145009</v>
+        <v>68.1194953114501</v>
       </c>
     </row>
     <row r="34">
@@ -3015,7 +3015,7 @@
         <v>0.133156460286653</v>
       </c>
       <c r="I51">
-        <v>0.89736465973565</v>
+        <v>0.8973646597356501</v>
       </c>
       <c r="J51">
         <v>2.29181886487773</v>
@@ -3027,7 +3027,7 @@
         <v>1.33479287485361</v>
       </c>
       <c r="M51">
-        <v>0.6099171533054309</v>
+        <v>0.609917153305431</v>
       </c>
       <c r="N51">
         <v>0.429358300798548</v>
@@ -3244,7 +3244,7 @@
         <v>1883.25905997295</v>
       </c>
       <c r="P55">
-        <v>612.036211620678</v>
+        <v>612.0362116206781</v>
       </c>
     </row>
     <row r="56">
@@ -3777,7 +3777,7 @@
         <v>22200.2447834287</v>
       </c>
       <c r="C66">
-        <v>686.880131799332</v>
+        <v>686.8801317993321</v>
       </c>
       <c r="D66">
         <v>127.870601142215</v>
@@ -4180,7 +4180,7 @@
         <v>18284.9934682344</v>
       </c>
       <c r="P73">
-        <v>913.8711230183339</v>
+        <v>913.871123018334</v>
       </c>
     </row>
     <row r="74">
@@ -4762,7 +4762,7 @@
         </is>
       </c>
       <c r="B85">
-        <v>713.6541741392419</v>
+        <v>713.654174139242</v>
       </c>
       <c r="C85">
         <v>17.8249953974538</v>
@@ -4804,7 +4804,7 @@
         <v>670.834711592471</v>
       </c>
       <c r="P85">
-        <v>97.33823763117699</v>
+        <v>97.338237631177</v>
       </c>
     </row>
     <row r="86">
@@ -4844,7 +4844,7 @@
         <v>85.97358060935549</v>
       </c>
       <c r="L86">
-        <v>77.0412605460459</v>
+        <v>77.04126054604591</v>
       </c>
       <c r="M86">
         <v>84.8570406014418</v>
@@ -4918,7 +4918,7 @@
         </is>
       </c>
       <c r="B88">
-        <v>8274.60113073005</v>
+        <v>8274.601130730051</v>
       </c>
       <c r="C88">
         <v>123.874857909146</v>

--- a/exercise_OECD_data/2-Final_Data/L_2015.xlsx
+++ b/exercise_OECD_data/2-Final_Data/L_2015.xlsx
@@ -3049,46 +3049,46 @@
         <v>6640.48948592328</v>
       </c>
       <c r="C52">
-        <v>274.218123645661</v>
+        <v>272.294132412914</v>
       </c>
       <c r="D52">
-        <v>38.9424670711717</v>
+        <v>38.6692358046516</v>
       </c>
       <c r="E52">
-        <v>118.65015321839</v>
+        <v>117.817670479754</v>
       </c>
       <c r="F52">
-        <v>255.66166888539</v>
+        <v>266.848475024527</v>
       </c>
       <c r="G52">
-        <v>24.185775357778</v>
+        <v>57.0143997223449</v>
       </c>
       <c r="H52">
-        <v>34.6402278960063</v>
+        <v>34.397182345675</v>
       </c>
       <c r="I52">
-        <v>34.9442089397564</v>
+        <v>34.6990305732009</v>
       </c>
       <c r="J52">
-        <v>137.183922826142</v>
+        <v>136.221401963982</v>
       </c>
       <c r="K52">
-        <v>69.5844368357627</v>
+        <v>69.09621291887581</v>
       </c>
       <c r="L52">
-        <v>54.3831161330032</v>
+        <v>54.0015489438681</v>
       </c>
       <c r="M52">
-        <v>92.6291490218517</v>
+        <v>91.9792369436656</v>
       </c>
       <c r="N52">
-        <v>108.581348272979</v>
+        <v>107.819511092637</v>
       </c>
       <c r="O52">
-        <v>10833.2310668629</v>
+        <v>10798.3432700973</v>
       </c>
       <c r="P52">
-        <v>337.164884854461</v>
+        <v>334.799241497903</v>
       </c>
     </row>
     <row r="53">
@@ -3101,46 +3101,46 @@
         <v>2893.02344752021</v>
       </c>
       <c r="C53">
-        <v>90.8770950139813</v>
+        <v>89.9690558754495</v>
       </c>
       <c r="D53">
-        <v>22.4266561328549</v>
+        <v>22.2025701680483</v>
       </c>
       <c r="E53">
-        <v>68.5608606247642</v>
+        <v>67.87580412280261</v>
       </c>
       <c r="F53">
-        <v>7.07803376718858</v>
+        <v>8.34099509513584</v>
       </c>
       <c r="G53">
-        <v>16.099490222404</v>
+        <v>35.1021431854275</v>
       </c>
       <c r="H53">
-        <v>33.1154809170024</v>
+        <v>32.7845927789153</v>
       </c>
       <c r="I53">
-        <v>35.4122531846705</v>
+        <v>35.0584158192669</v>
       </c>
       <c r="J53">
-        <v>121.982900196774</v>
+        <v>120.764053494057</v>
       </c>
       <c r="K53">
-        <v>88.03925620248761</v>
+        <v>87.15957259963049</v>
       </c>
       <c r="L53">
-        <v>71.7520490158992</v>
+        <v>71.0351063279065</v>
       </c>
       <c r="M53">
-        <v>42.0485999773075</v>
+        <v>41.6284525848981</v>
       </c>
       <c r="N53">
-        <v>50.6173272836076</v>
+        <v>50.1115616200559</v>
       </c>
       <c r="O53">
-        <v>3501.49557510614</v>
+        <v>3489.55313803186</v>
       </c>
       <c r="P53">
-        <v>208.156028931781</v>
+        <v>206.076144873402</v>
       </c>
     </row>
     <row r="54">
@@ -3153,46 +3153,46 @@
         <v>4169.66714572367</v>
       </c>
       <c r="C54">
-        <v>113.372549130945</v>
+        <v>111.372427433388</v>
       </c>
       <c r="D54">
-        <v>28.938581343298</v>
+        <v>28.4280460780601</v>
       </c>
       <c r="E54">
-        <v>48.1118800933844</v>
+        <v>47.2630889528243</v>
       </c>
       <c r="F54">
-        <v>2.8581314906961</v>
+        <v>7.95517338809914</v>
       </c>
       <c r="G54">
-        <v>28.7004037190734</v>
+        <v>79.4347460370487</v>
       </c>
       <c r="H54">
-        <v>26.5568051010513</v>
+        <v>26.0882891992075</v>
       </c>
       <c r="I54">
-        <v>32.2730680824435</v>
+        <v>31.7037057084539</v>
       </c>
       <c r="J54">
-        <v>102.535467228723</v>
+        <v>100.726533634608</v>
       </c>
       <c r="K54">
-        <v>39.0611303728467</v>
+        <v>38.372012813184</v>
       </c>
       <c r="L54">
-        <v>32.0348904582188</v>
+        <v>31.4697300205686</v>
       </c>
       <c r="M54">
-        <v>49.6600346508448</v>
+        <v>48.7839309240785</v>
       </c>
       <c r="N54">
-        <v>26.9140715373883</v>
+        <v>26.4392527310354</v>
       </c>
       <c r="O54">
-        <v>4186.32901218501</v>
+        <v>4140.55076066166</v>
       </c>
       <c r="P54">
-        <v>70.3814879583915</v>
+        <v>69.1398157700969</v>
       </c>
     </row>
     <row r="55">
@@ -3205,46 +3205,46 @@
         <v>2615.78996511051</v>
       </c>
       <c r="C55">
-        <v>109.995544489913</v>
+        <v>108.486707067876</v>
       </c>
       <c r="D55">
-        <v>151.781720231428</v>
+        <v>149.69969099535</v>
       </c>
       <c r="E55">
-        <v>41.1796175089325</v>
+        <v>40.6147460115389</v>
       </c>
       <c r="F55">
-        <v>25.5512655475448</v>
+        <v>27.9582751025346</v>
       </c>
       <c r="G55">
-        <v>8.58658997999836</v>
+        <v>27.2478675773616</v>
       </c>
       <c r="H55">
-        <v>33.2754055405897</v>
+        <v>32.8189581695082</v>
       </c>
       <c r="I55">
-        <v>24.3191941376112</v>
+        <v>23.9856014420274</v>
       </c>
       <c r="J55">
-        <v>71.7444659476684</v>
+        <v>70.76032849421161</v>
       </c>
       <c r="K55">
-        <v>34.8297110115827</v>
+        <v>34.3519428290922</v>
       </c>
       <c r="L55">
-        <v>32.2992258850269</v>
+        <v>31.85616902355</v>
       </c>
       <c r="M55">
-        <v>21.9972134035057</v>
+        <v>21.6954719200879</v>
       </c>
       <c r="N55">
-        <v>42.1937070540317</v>
+        <v>41.6149250272431</v>
       </c>
       <c r="O55">
-        <v>1883.25905997295</v>
+        <v>1878.31749655758</v>
       </c>
       <c r="P55">
-        <v>612.0362116206781</v>
+        <v>603.640752113501</v>
       </c>
     </row>
     <row r="56">
@@ -3257,46 +3257,46 @@
         <v>51932.3516940765</v>
       </c>
       <c r="C56">
-        <v>2245.47298485427</v>
+        <v>2234.89010290513</v>
       </c>
       <c r="D56">
-        <v>2796.57183353615</v>
+        <v>2783.39163062291</v>
       </c>
       <c r="E56">
-        <v>778.977373516686</v>
+        <v>775.306064335691</v>
       </c>
       <c r="F56">
-        <v>288.327641625681</v>
+        <v>326.890439706448</v>
       </c>
       <c r="G56">
-        <v>95.3323013035818</v>
+        <v>491.029505805984</v>
       </c>
       <c r="H56">
-        <v>452.354970413328</v>
+        <v>450.223027930261</v>
       </c>
       <c r="I56">
-        <v>650.262525674975</v>
+        <v>647.197847724458</v>
       </c>
       <c r="J56">
-        <v>989.723931398751</v>
+        <v>985.059376715229</v>
       </c>
       <c r="K56">
-        <v>440.181757172767</v>
+        <v>438.107186868986</v>
       </c>
       <c r="L56">
-        <v>453.488047061216</v>
+        <v>451.350764404171</v>
       </c>
       <c r="M56">
-        <v>749.63895134294</v>
+        <v>746.105913724565</v>
       </c>
       <c r="N56">
-        <v>1215.85582760366</v>
+        <v>1210.12551653891</v>
       </c>
       <c r="O56">
-        <v>68026.8446816145</v>
+        <v>67706.2351389954</v>
       </c>
       <c r="P56">
-        <v>13341.7951728815</v>
+        <v>13278.9154837219</v>
       </c>
     </row>
     <row r="57">
@@ -3309,46 +3309,46 @@
         <v>10100.6017583915</v>
       </c>
       <c r="C57">
-        <v>318.415773176042</v>
+        <v>316.709052892957</v>
       </c>
       <c r="D57">
-        <v>61.5700181488207</v>
+        <v>61.2400005816744</v>
       </c>
       <c r="E57">
-        <v>271.581408950766</v>
+        <v>270.125722586545</v>
       </c>
       <c r="F57">
-        <v>314.013500857655</v>
+        <v>327.321679564274</v>
       </c>
       <c r="G57">
-        <v>53.494417485743</v>
+        <v>97.235744734441</v>
       </c>
       <c r="H57">
-        <v>126.193132878213</v>
+        <v>125.516733033691</v>
       </c>
       <c r="I57">
-        <v>69.8104036348376</v>
+        <v>69.43621729769249</v>
       </c>
       <c r="J57">
-        <v>421.302152659767</v>
+        <v>419.043957589592</v>
       </c>
       <c r="K57">
-        <v>167.472875363574</v>
+        <v>166.575214577494</v>
       </c>
       <c r="L57">
-        <v>177.428625082828</v>
+        <v>176.477601111219</v>
       </c>
       <c r="M57">
-        <v>210.270011426836</v>
+        <v>209.142956413678</v>
       </c>
       <c r="N57">
-        <v>357.210011248735</v>
+        <v>355.295352419374</v>
       </c>
       <c r="O57">
-        <v>16317.1339211599</v>
+        <v>16273.94284062</v>
       </c>
       <c r="P57">
-        <v>404.254933858879</v>
+        <v>402.088112509947</v>
       </c>
     </row>
     <row r="58">
@@ -3361,46 +3361,46 @@
         <v>336820.359625158</v>
       </c>
       <c r="C58">
-        <v>16089.4413167587</v>
+        <v>15915.7904223906</v>
       </c>
       <c r="D58">
-        <v>32132.2635612009</v>
+        <v>31785.4649250257</v>
       </c>
       <c r="E58">
-        <v>14985.0573902866</v>
+        <v>14823.325943759</v>
       </c>
       <c r="F58">
-        <v>19052.721860907</v>
+        <v>19749.564240746</v>
       </c>
       <c r="G58">
-        <v>2757.58501502306</v>
+        <v>10103.8719008623</v>
       </c>
       <c r="H58">
-        <v>9299.225574695731</v>
+        <v>9198.86044664777</v>
       </c>
       <c r="I58">
-        <v>11393.8685174338</v>
+        <v>11270.8962265125</v>
       </c>
       <c r="J58">
-        <v>15411.6073270805</v>
+        <v>15245.2721919252</v>
       </c>
       <c r="K58">
-        <v>14882.2047183499</v>
+        <v>14721.5833450758</v>
       </c>
       <c r="L58">
-        <v>24538.6969410569</v>
+        <v>24273.8545151111</v>
       </c>
       <c r="M58">
-        <v>9130.920310185769</v>
+        <v>9032.3716752735</v>
       </c>
       <c r="N58">
-        <v>6187.21331830598</v>
+        <v>6120.43566548276</v>
       </c>
       <c r="O58">
-        <v>408889.57632986</v>
+        <v>404672.149293691</v>
       </c>
       <c r="P58">
-        <v>200415.924828974</v>
+        <v>198252.866217616</v>
       </c>
     </row>
     <row r="59">
@@ -3413,46 +3413,46 @@
         <v>338.852452987513</v>
       </c>
       <c r="C59">
-        <v>19.9833004132976</v>
+        <v>19.825430780056</v>
       </c>
       <c r="D59">
-        <v>1.73379261188718</v>
+        <v>1.72009551490647</v>
       </c>
       <c r="E59">
-        <v>6.02358876501011</v>
+        <v>5.97600194354102</v>
       </c>
       <c r="F59">
-        <v>0.768588477434525</v>
+        <v>0.833448342274268</v>
       </c>
       <c r="G59">
-        <v>2.32363958294159</v>
+        <v>3.47565691671822</v>
       </c>
       <c r="H59">
-        <v>1.6086735574211</v>
+        <v>1.59596491073796</v>
       </c>
       <c r="I59">
-        <v>3.62845257951648</v>
+        <v>3.59978752088673</v>
       </c>
       <c r="J59">
-        <v>6.98879289946277</v>
+        <v>6.9335808899838</v>
       </c>
       <c r="K59">
-        <v>0.822210929348562</v>
+        <v>0.815715398821624</v>
       </c>
       <c r="L59">
-        <v>0.750714326796513</v>
+        <v>0.744783625011048</v>
       </c>
       <c r="M59">
-        <v>0.411105464674281</v>
+        <v>0.407857699410812</v>
       </c>
       <c r="N59">
-        <v>3.2173471148422</v>
+        <v>3.19192982147592</v>
       </c>
       <c r="O59">
-        <v>493.147816102757</v>
+        <v>492.497038510282</v>
       </c>
       <c r="P59">
-        <v>26.4894912455341</v>
+        <v>26.2802221968184</v>
       </c>
     </row>
     <row r="60">
@@ -3465,46 +3465,46 @@
         <v>3554.22680283735</v>
       </c>
       <c r="C60">
-        <v>140.054944932358</v>
+        <v>137.887008158879</v>
       </c>
       <c r="D60">
-        <v>66.8067902448025</v>
+        <v>65.7726754025187</v>
       </c>
       <c r="E60">
-        <v>116.939840239354</v>
+        <v>115.129706508895</v>
       </c>
       <c r="F60">
-        <v>35.6287970739773</v>
+        <v>37.7526789345893</v>
       </c>
       <c r="G60">
-        <v>12.983375204924</v>
+        <v>46.0100452807374</v>
       </c>
       <c r="H60">
-        <v>100.232551215963</v>
+        <v>98.6810327473677</v>
       </c>
       <c r="I60">
-        <v>66.5719488328271</v>
+        <v>65.54146914482649</v>
       </c>
       <c r="J60">
-        <v>270.425477351827</v>
+        <v>266.239510643406</v>
       </c>
       <c r="K60">
-        <v>147.838260300684</v>
+        <v>145.549844128105</v>
       </c>
       <c r="L60">
-        <v>173.469522979139</v>
+        <v>170.784355681933</v>
       </c>
       <c r="M60">
-        <v>211.189526912135</v>
+        <v>207.92048459601</v>
       </c>
       <c r="N60">
-        <v>86.3209932875176</v>
+        <v>84.9848144345567</v>
       </c>
       <c r="O60">
-        <v>3632.07964345981</v>
+        <v>3621.18543743981</v>
       </c>
       <c r="P60">
-        <v>187.179788268749</v>
+        <v>184.282397202437</v>
       </c>
     </row>
     <row r="61">
@@ -3514,49 +3514,49 @@
         </is>
       </c>
       <c r="B61">
-        <v>27692.170488613</v>
+        <v>27692.1704886131</v>
       </c>
       <c r="C61">
-        <v>983.16817089151</v>
+        <v>968.722141400952</v>
       </c>
       <c r="D61">
-        <v>167.573431500387</v>
+        <v>165.11121719671</v>
       </c>
       <c r="E61">
-        <v>487.87201576062</v>
+        <v>480.703543737258</v>
       </c>
       <c r="F61">
-        <v>64.69607165521261</v>
+        <v>81.5106008945785</v>
       </c>
       <c r="G61">
-        <v>134.695100003475</v>
+        <v>494.288643886354</v>
       </c>
       <c r="H61">
-        <v>449.690727570658</v>
+        <v>443.083266401299</v>
       </c>
       <c r="I61">
-        <v>258.78428662085</v>
+        <v>254.981879721502</v>
       </c>
       <c r="J61">
-        <v>1239.83127483514</v>
+        <v>1221.6140057149</v>
       </c>
       <c r="K61">
-        <v>1197.40762129074</v>
+        <v>1179.81369756384</v>
       </c>
       <c r="L61">
-        <v>911.047959866027</v>
+        <v>897.66161754414</v>
       </c>
       <c r="M61">
-        <v>1037.25832916062</v>
+        <v>1022.01753429356</v>
       </c>
       <c r="N61">
-        <v>432.721266152897</v>
+        <v>426.363143140872</v>
       </c>
       <c r="O61">
-        <v>33621.806025277</v>
+        <v>33360.8259353657</v>
       </c>
       <c r="P61">
-        <v>690.444961435138</v>
+        <v>680.3000151585979</v>
       </c>
     </row>
     <row r="62">
@@ -3569,46 +3569,46 @@
         <v>1772.44602308119</v>
       </c>
       <c r="C62">
-        <v>55.0783039315493</v>
+        <v>54.6126149667169</v>
       </c>
       <c r="D62">
-        <v>5.39983371877935</v>
+        <v>5.35417793791342</v>
       </c>
       <c r="E62">
-        <v>21.5993348751174</v>
+        <v>21.4167117516537</v>
       </c>
       <c r="F62">
-        <v>4.31986697502348</v>
+        <v>5.35417793791342</v>
       </c>
       <c r="G62">
-        <v>22.6793016188733</v>
+        <v>34.2667388026459</v>
       </c>
       <c r="H62">
-        <v>14.0395676688263</v>
+        <v>13.9208626385749</v>
       </c>
       <c r="I62">
-        <v>12.9596009250704</v>
+        <v>12.8500270509922</v>
       </c>
       <c r="J62">
-        <v>42.1187030064789</v>
+        <v>41.7625879157247</v>
       </c>
       <c r="K62">
-        <v>55.0783039315493</v>
+        <v>54.6126149667169</v>
       </c>
       <c r="L62">
-        <v>26.9991685938967</v>
+        <v>26.7708896895671</v>
       </c>
       <c r="M62">
-        <v>5.39983371877935</v>
+        <v>5.35417793791342</v>
       </c>
       <c r="N62">
-        <v>19.4394013876057</v>
+        <v>19.2750405764883</v>
       </c>
       <c r="O62">
-        <v>2423.44537298817</v>
+        <v>2413.66341441137</v>
       </c>
       <c r="P62">
-        <v>77.7576055504226</v>
+        <v>77.10016230595321</v>
       </c>
     </row>
     <row r="63">
@@ -3621,46 +3621,46 @@
         <v>14016.0439422096</v>
       </c>
       <c r="C63">
-        <v>527.384346296016</v>
+        <v>521.167276256414</v>
       </c>
       <c r="D63">
-        <v>193.354030759391</v>
+        <v>191.074676887564</v>
       </c>
       <c r="E63">
-        <v>200.272536568107</v>
+        <v>197.911623894841</v>
       </c>
       <c r="F63">
-        <v>37.6269614158262</v>
+        <v>48.0985219283825</v>
       </c>
       <c r="G63">
-        <v>50.0074454945819</v>
+        <v>155.330638147769</v>
       </c>
       <c r="H63">
-        <v>107.05477409277</v>
+        <v>105.792758954697</v>
       </c>
       <c r="I63">
-        <v>113.245016132148</v>
+        <v>111.910027329628</v>
       </c>
       <c r="J63">
-        <v>368.258712695538</v>
+        <v>363.917495089058</v>
       </c>
       <c r="K63">
-        <v>139.948021007896</v>
+        <v>138.29824384894</v>
       </c>
       <c r="L63">
-        <v>118.949748991967</v>
+        <v>117.547509949663</v>
       </c>
       <c r="M63">
-        <v>231.223746764997</v>
+        <v>228.497965769498</v>
       </c>
       <c r="N63">
-        <v>141.525925841462</v>
+        <v>139.857547552354</v>
       </c>
       <c r="O63">
-        <v>16639.9774883221</v>
+        <v>16559.8053302556</v>
       </c>
       <c r="P63">
-        <v>880.592274425223</v>
+        <v>870.2114129436781</v>
       </c>
     </row>
     <row r="64">
@@ -3673,46 +3673,46 @@
         <v>395.833432048099</v>
       </c>
       <c r="C64">
-        <v>19.5097919146291</v>
+        <v>19.2424393648113</v>
       </c>
       <c r="D64">
-        <v>15.161223837272</v>
+        <v>14.9534619160281</v>
       </c>
       <c r="E64">
-        <v>24.210946592853</v>
+        <v>23.8791717418743</v>
       </c>
       <c r="F64">
-        <v>4.70115467822389</v>
+        <v>7.07101687502102</v>
       </c>
       <c r="G64">
-        <v>0.235057733911194</v>
+        <v>3.82530421107695</v>
       </c>
       <c r="H64">
-        <v>3.52586600866792</v>
+        <v>3.47754928279722</v>
       </c>
       <c r="I64">
-        <v>4.81868354517948</v>
+        <v>4.75265068648954</v>
       </c>
       <c r="J64">
-        <v>19.5097919146291</v>
+        <v>19.2424393648113</v>
       </c>
       <c r="K64">
-        <v>2.82069280693433</v>
+        <v>2.78203942623778</v>
       </c>
       <c r="L64">
-        <v>12.8106464981601</v>
+        <v>12.6350957274966</v>
       </c>
       <c r="M64">
-        <v>5.75891448082426</v>
+        <v>5.67999716190213</v>
       </c>
       <c r="N64">
-        <v>13.6333485668493</v>
+        <v>13.4465238934826</v>
       </c>
       <c r="O64">
-        <v>497.734751556954</v>
+        <v>493.811998157206</v>
       </c>
       <c r="P64">
-        <v>26.9141105328318</v>
+        <v>26.5452928586855</v>
       </c>
     </row>
     <row r="65">
@@ -3725,46 +3725,46 @@
         <v>1765.84800203087</v>
       </c>
       <c r="C65">
-        <v>41.7549409490118</v>
+        <v>41.2989278237377</v>
       </c>
       <c r="D65">
-        <v>12.118848296547</v>
+        <v>11.9864962021402</v>
       </c>
       <c r="E65">
-        <v>57.289101038222</v>
+        <v>56.6634365919356</v>
       </c>
       <c r="F65">
-        <v>7.16113762977774</v>
+        <v>10.1340376981731</v>
       </c>
       <c r="G65">
-        <v>5.06788201491963</v>
+        <v>18.5245850396712</v>
       </c>
       <c r="H65">
-        <v>15.4239887410598</v>
+        <v>15.2555406209057</v>
       </c>
       <c r="I65">
-        <v>16.4155308744136</v>
+        <v>16.2362539465354</v>
       </c>
       <c r="J65">
-        <v>63.4586965346459</v>
+        <v>62.7656528402979</v>
       </c>
       <c r="K65">
-        <v>50.8991628454972</v>
+        <v>50.3432840489889</v>
       </c>
       <c r="L65">
-        <v>46.3821375713297</v>
+        <v>45.8755900100094</v>
       </c>
       <c r="M65">
-        <v>15.5341600892102</v>
+        <v>15.3645087681979</v>
       </c>
       <c r="N65">
-        <v>15.4239887410598</v>
+        <v>15.2555406209057</v>
       </c>
       <c r="O65">
-        <v>2053.37358682765</v>
+        <v>2041.95411210823</v>
       </c>
       <c r="P65">
-        <v>124.052938017381</v>
+        <v>122.698133850999</v>
       </c>
     </row>
     <row r="66">
@@ -3777,46 +3777,46 @@
         <v>22200.2447834287</v>
       </c>
       <c r="C66">
-        <v>686.8801317993321</v>
+        <v>679.685488124967</v>
       </c>
       <c r="D66">
-        <v>127.870601142215</v>
+        <v>126.53123584534</v>
       </c>
       <c r="E66">
-        <v>226.319648039319</v>
+        <v>223.949089991752</v>
       </c>
       <c r="F66">
-        <v>21.5003665637353</v>
+        <v>26.8738907990102</v>
       </c>
       <c r="G66">
-        <v>52.0535190490433</v>
+        <v>185.877744693154</v>
       </c>
       <c r="H66">
-        <v>182.187316671651</v>
+        <v>180.27901744336</v>
       </c>
       <c r="I66">
-        <v>118.817815220642</v>
+        <v>117.57327224567</v>
       </c>
       <c r="J66">
-        <v>448.112903117851</v>
+        <v>443.419198183669</v>
       </c>
       <c r="K66">
-        <v>194.634897313814</v>
+        <v>192.596217392907</v>
       </c>
       <c r="L66">
-        <v>178.792521951062</v>
+        <v>176.919781093484</v>
       </c>
       <c r="M66">
-        <v>228.582844519712</v>
+        <v>226.188580891669</v>
       </c>
       <c r="N66">
-        <v>144.844574745164</v>
+        <v>143.327417594721</v>
       </c>
       <c r="O66">
-        <v>24213.9391437267</v>
+        <v>24110.359028512</v>
       </c>
       <c r="P66">
-        <v>863.40945727</v>
+        <v>854.365778318533</v>
       </c>
     </row>
     <row r="67">
@@ -3829,46 +3829,46 @@
         <v>19966.6015024069</v>
       </c>
       <c r="C67">
-        <v>468.869807504693</v>
+        <v>464.987928236816</v>
       </c>
       <c r="D67">
-        <v>124.955523271422</v>
+        <v>123.920988209812</v>
       </c>
       <c r="E67">
-        <v>268.253141701952</v>
+        <v>266.032213221064</v>
       </c>
       <c r="F67">
-        <v>84.8321901108736</v>
+        <v>98.9094126078313</v>
       </c>
       <c r="G67">
-        <v>53.8799045298792</v>
+        <v>167.122800613232</v>
       </c>
       <c r="H67">
-        <v>185.713713485966</v>
+        <v>184.176147614582</v>
       </c>
       <c r="I67">
-        <v>92.8568567429832</v>
+        <v>92.0880738072912</v>
       </c>
       <c r="J67">
-        <v>414.989902974814</v>
+        <v>411.554107632585</v>
       </c>
       <c r="K67">
-        <v>223.544284751626</v>
+        <v>221.693511017553</v>
       </c>
       <c r="L67">
-        <v>243.032760858178</v>
+        <v>241.020637619083</v>
       </c>
       <c r="M67">
-        <v>312.961998652277</v>
+        <v>310.370915424574</v>
       </c>
       <c r="N67">
-        <v>186.860094433411</v>
+        <v>185.313037414672</v>
       </c>
       <c r="O67">
-        <v>29943.4703472435</v>
+        <v>29841.0834727627</v>
       </c>
       <c r="P67">
-        <v>489.504664558689</v>
+        <v>485.451944638436</v>
       </c>
     </row>
     <row r="68">
@@ -3881,46 +3881,46 @@
         <v>3489.05622354693</v>
       </c>
       <c r="C68">
-        <v>113.184035769097</v>
+        <v>112.242882031478</v>
       </c>
       <c r="D68">
-        <v>29.5487108392057</v>
+        <v>29.3030058733138</v>
       </c>
       <c r="E68">
-        <v>33.7423051722807</v>
+        <v>33.4617294142863</v>
       </c>
       <c r="F68">
-        <v>10.4302218027764</v>
+        <v>13.5425099923976</v>
       </c>
       <c r="G68">
-        <v>12.752827894941</v>
+        <v>22.9156330501278</v>
       </c>
       <c r="H68">
-        <v>14.5377936879935</v>
+        <v>14.4169082753713</v>
       </c>
       <c r="I68">
-        <v>18.0647140501694</v>
+        <v>17.9145014072661</v>
       </c>
       <c r="J68">
-        <v>53.0973559403194</v>
+        <v>52.6558380649285</v>
       </c>
       <c r="K68">
-        <v>13.8496141051299</v>
+        <v>13.734451078904</v>
       </c>
       <c r="L68">
-        <v>10.5377498625988</v>
+        <v>10.4501258209052</v>
       </c>
       <c r="M68">
-        <v>7.0860991422986</v>
+        <v>7.02717644487401</v>
       </c>
       <c r="N68">
-        <v>26.3443746564971</v>
+        <v>26.125314552263</v>
       </c>
       <c r="O68">
-        <v>2940.16124533686</v>
+        <v>2933.91547779392</v>
       </c>
       <c r="P68">
-        <v>525.360594680463</v>
+        <v>520.992089140599</v>
       </c>
     </row>
     <row r="69">
@@ -3933,46 +3933,46 @@
         <v>3613.48955638946</v>
       </c>
       <c r="C69">
-        <v>141.183551878463</v>
+        <v>139.465135823604</v>
       </c>
       <c r="D69">
-        <v>62.4685159965533</v>
+        <v>61.7081802535904</v>
       </c>
       <c r="E69">
-        <v>64.20963470982829</v>
+        <v>63.4281069348581</v>
       </c>
       <c r="F69">
-        <v>7.37622590015799</v>
+        <v>16.176607704896</v>
       </c>
       <c r="G69">
-        <v>24.1991972513955</v>
+        <v>41.987129050136</v>
       </c>
       <c r="H69">
-        <v>54.3158452647998</v>
+        <v>53.6547397798168</v>
       </c>
       <c r="I69">
-        <v>29.2813816036575</v>
+        <v>28.9249831734815</v>
       </c>
       <c r="J69">
-        <v>107.031743603887</v>
+        <v>105.729006393063</v>
       </c>
       <c r="K69">
-        <v>69.2918190620902</v>
+        <v>68.4484334639638</v>
       </c>
       <c r="L69">
-        <v>151.99495794265</v>
+        <v>150.144950824179</v>
       </c>
       <c r="M69">
-        <v>135.913138476117</v>
+        <v>134.258871274902</v>
       </c>
       <c r="N69">
-        <v>57.7510254288287</v>
+        <v>57.048108637453</v>
       </c>
       <c r="O69">
-        <v>3153.76596983804</v>
+        <v>3141.79471712216</v>
       </c>
       <c r="P69">
-        <v>327.48325419888</v>
+        <v>323.497290719246</v>
       </c>
     </row>
     <row r="70">
@@ -3985,46 +3985,46 @@
         <v>62963.5417907615</v>
       </c>
       <c r="C70">
-        <v>2032.10869401779</v>
+        <v>2024.41607450987</v>
       </c>
       <c r="D70">
-        <v>3029.6948361991</v>
+        <v>3018.22581898137</v>
       </c>
       <c r="E70">
-        <v>2610.67885992911</v>
+        <v>2600.79604254541</v>
       </c>
       <c r="F70">
-        <v>1087.40755918433</v>
+        <v>1290.71836711895</v>
       </c>
       <c r="G70">
-        <v>101.07884029785</v>
+        <v>366.412941069229</v>
       </c>
       <c r="H70">
-        <v>1546.44967101</v>
+        <v>1540.59553095231</v>
       </c>
       <c r="I70">
-        <v>1289.05596985614</v>
+        <v>1284.17620277985</v>
       </c>
       <c r="J70">
-        <v>2332.37563640535</v>
+        <v>2323.5463457413</v>
       </c>
       <c r="K70">
-        <v>102.236906152183</v>
+        <v>101.849884719219</v>
       </c>
       <c r="L70">
-        <v>194.820938084817</v>
+        <v>194.083436516483</v>
       </c>
       <c r="M70">
-        <v>458.315026302668</v>
+        <v>456.580058521423</v>
       </c>
       <c r="N70">
-        <v>649.272644295119</v>
+        <v>646.8147996807199</v>
       </c>
       <c r="O70">
-        <v>68840.0922247225</v>
+        <v>68579.4956149379</v>
       </c>
       <c r="P70">
-        <v>40713.7414199801</v>
+        <v>40559.6181083631</v>
       </c>
     </row>
     <row r="71">
@@ -4037,46 +4037,46 @@
         <v>458563.362593239</v>
       </c>
       <c r="C71">
-        <v>10355.1211486647</v>
+        <v>10317.6146160231</v>
       </c>
       <c r="D71">
-        <v>16303.8734994997</v>
+        <v>16244.820422784</v>
       </c>
       <c r="E71">
-        <v>8575.4763021893</v>
+        <v>8544.41569196298</v>
       </c>
       <c r="F71">
-        <v>2039.29238132696</v>
+        <v>2216.8801994425</v>
       </c>
       <c r="G71">
-        <v>227.369767608732</v>
+        <v>1764.07964324892</v>
       </c>
       <c r="H71">
-        <v>1064.86889660284</v>
+        <v>1061.01191227055</v>
       </c>
       <c r="I71">
-        <v>4561.29167081094</v>
+        <v>4544.77054735107</v>
       </c>
       <c r="J71">
-        <v>3180.0456320818</v>
+        <v>3168.52741963513</v>
       </c>
       <c r="K71">
-        <v>1869.20542667891</v>
+        <v>1862.43511338726</v>
       </c>
       <c r="L71">
-        <v>1697.0283360318</v>
+        <v>1690.88165288196</v>
       </c>
       <c r="M71">
-        <v>1725.09385836725</v>
+        <v>1718.84552112622</v>
       </c>
       <c r="N71">
-        <v>11349.6845920052</v>
+        <v>11308.5757233102</v>
       </c>
       <c r="O71">
-        <v>193261.047179125</v>
+        <v>192561.050368822</v>
       </c>
       <c r="P71">
-        <v>219355.087956035</v>
+        <v>218560.577814782</v>
       </c>
     </row>
     <row r="72">
@@ -4089,46 +4089,46 @@
         <v>1351.17634573107</v>
       </c>
       <c r="C72">
-        <v>66.395756772939</v>
+        <v>65.9738893280514</v>
       </c>
       <c r="D72">
-        <v>8.08919987509354</v>
+        <v>8.037802462843819</v>
       </c>
       <c r="E72">
-        <v>20.2229996877339</v>
+        <v>20.0945061571095</v>
       </c>
       <c r="F72">
-        <v>7.4336530962251</v>
+        <v>7.49703287818766</v>
       </c>
       <c r="G72">
-        <v>38.6772599532378</v>
+        <v>41.5900971471919</v>
       </c>
       <c r="H72">
-        <v>5.17016138805673</v>
+        <v>5.13731105423351</v>
       </c>
       <c r="I72">
-        <v>7.24812098899819</v>
+        <v>7.20206765019339</v>
       </c>
       <c r="J72">
-        <v>19.1716510801147</v>
+        <v>19.0498376412965</v>
       </c>
       <c r="K72">
-        <v>35.7458526590525</v>
+        <v>35.5187295376432</v>
       </c>
       <c r="L72">
-        <v>34.0018508511195</v>
+        <v>33.7858088231768</v>
       </c>
       <c r="M72">
-        <v>3.71064214453832</v>
+        <v>3.68706534992836</v>
       </c>
       <c r="N72">
-        <v>13.815957584831</v>
+        <v>13.7281733195666</v>
       </c>
       <c r="O72">
-        <v>1823.97851495496</v>
+        <v>1823.21694488607</v>
       </c>
       <c r="P72">
-        <v>134.980792411156</v>
+        <v>134.123147212561</v>
       </c>
     </row>
     <row r="73">
@@ -4141,46 +4141,46 @@
         <v>24079.4057956725</v>
       </c>
       <c r="C73">
-        <v>456.178460722396</v>
+        <v>450.364462398246</v>
       </c>
       <c r="D73">
-        <v>520.279660669004</v>
+        <v>513.6486920116311</v>
       </c>
       <c r="E73">
-        <v>294.764572982827</v>
+        <v>291.007796017455</v>
       </c>
       <c r="F73">
-        <v>24.0253316335318</v>
+        <v>41.4586449120758</v>
       </c>
       <c r="G73">
-        <v>63.4955193171912</v>
+        <v>176.797202101015</v>
       </c>
       <c r="H73">
-        <v>184.732591972114</v>
+        <v>182.378173531487</v>
       </c>
       <c r="I73">
-        <v>192.505493382963</v>
+        <v>190.052009248386</v>
       </c>
       <c r="J73">
-        <v>691.889172337088</v>
+        <v>683.071039008095</v>
       </c>
       <c r="K73">
-        <v>471.522370000954</v>
+        <v>465.512813423812</v>
       </c>
       <c r="L73">
-        <v>273.56575095324</v>
+        <v>270.079153153186</v>
       </c>
       <c r="M73">
-        <v>246.512016172625</v>
+        <v>243.370218450214</v>
       </c>
       <c r="N73">
-        <v>277.30078150131</v>
+        <v>273.766580705462</v>
       </c>
       <c r="O73">
-        <v>18284.9934682344</v>
+        <v>18211.9057000787</v>
       </c>
       <c r="P73">
-        <v>913.871123018334</v>
+        <v>902.223827858226</v>
       </c>
     </row>
     <row r="74">
@@ -4193,46 +4193,46 @@
         <v>43367.2127352229</v>
       </c>
       <c r="C74">
-        <v>1551.06622906497</v>
+        <v>1537.63707740066</v>
       </c>
       <c r="D74">
-        <v>668.9562118892929</v>
+        <v>663.164380271849</v>
       </c>
       <c r="E74">
-        <v>955.948219344111</v>
+        <v>947.67160717872</v>
       </c>
       <c r="F74">
-        <v>43.993144063296</v>
+        <v>71.02872566626191</v>
       </c>
       <c r="G74">
-        <v>153.412514422302</v>
+        <v>475.719072686965</v>
       </c>
       <c r="H74">
-        <v>661.71670419621</v>
+        <v>655.987552330902</v>
       </c>
       <c r="I74">
-        <v>384.27843600146</v>
+        <v>380.951348284837</v>
       </c>
       <c r="J74">
-        <v>1685.98763524198</v>
+        <v>1671.39033228124</v>
       </c>
       <c r="K74">
-        <v>1005.63767098432</v>
+        <v>996.930846897811</v>
       </c>
       <c r="L74">
-        <v>1895.95382820294</v>
+        <v>1879.5386352019</v>
       </c>
       <c r="M74">
-        <v>1265.35358795554</v>
+        <v>1254.39814006865</v>
       </c>
       <c r="N74">
-        <v>424.547202481525</v>
+        <v>420.871467258908</v>
       </c>
       <c r="O74">
-        <v>51007.0394152086</v>
+        <v>50777.3447893589</v>
       </c>
       <c r="P74">
-        <v>3319.83512153326</v>
+        <v>3291.09194570222</v>
       </c>
     </row>
     <row r="75">
@@ -4245,46 +4245,46 @@
         <v>15976.2702147973</v>
       </c>
       <c r="C75">
-        <v>404.046873531463</v>
+        <v>399.196385037384</v>
       </c>
       <c r="D75">
-        <v>491.091905031503</v>
+        <v>485.196461232938</v>
       </c>
       <c r="E75">
-        <v>232.623366389555</v>
+        <v>229.830777123205</v>
       </c>
       <c r="F75">
-        <v>17.2641474547397</v>
+        <v>30.8075561356266</v>
       </c>
       <c r="G75">
-        <v>78.1252820393225</v>
+        <v>300.176674852463</v>
       </c>
       <c r="H75">
-        <v>96.6554429510507</v>
+        <v>95.495116898218</v>
       </c>
       <c r="I75">
-        <v>54.037394120492</v>
+        <v>53.3886878054534</v>
       </c>
       <c r="J75">
-        <v>489.608483191483</v>
+        <v>483.730847526178</v>
       </c>
       <c r="K75">
-        <v>506.169957143056</v>
+        <v>500.093504845054</v>
       </c>
       <c r="L75">
-        <v>895.326158163811</v>
+        <v>884.577976422755</v>
       </c>
       <c r="M75">
-        <v>771.344523422923</v>
+        <v>762.0847122947411</v>
       </c>
       <c r="N75">
-        <v>193.225604160691</v>
+        <v>190.905975842444</v>
       </c>
       <c r="O75">
-        <v>20909.0013985609</v>
+        <v>20743.6484499526</v>
       </c>
       <c r="P75">
-        <v>1717.03375391887</v>
+        <v>1696.42116411082</v>
       </c>
     </row>
     <row r="76">
@@ -4297,46 +4297,46 @@
         <v>911.629464269414</v>
       </c>
       <c r="C76">
-        <v>48.1482558418431</v>
+        <v>47.5263561131931</v>
       </c>
       <c r="D76">
-        <v>33.4743971546892</v>
+        <v>33.0420301220057</v>
       </c>
       <c r="E76">
-        <v>34.2755876439654</v>
+        <v>33.832872154434</v>
       </c>
       <c r="F76">
-        <v>4.34618402401867</v>
+        <v>6.68424019189426</v>
       </c>
       <c r="G76">
-        <v>0.724364004003111</v>
+        <v>6.43507078441684</v>
       </c>
       <c r="H76">
-        <v>9.296004718039921</v>
+        <v>9.17593426666846</v>
       </c>
       <c r="I76">
-        <v>7.19973919130365</v>
+        <v>7.10674483935597</v>
       </c>
       <c r="J76">
-        <v>15.5079748129757</v>
+        <v>15.3076683811128</v>
       </c>
       <c r="K76">
-        <v>8.52773986530935</v>
+        <v>8.417592591737179</v>
       </c>
       <c r="L76">
-        <v>6.98023494766634</v>
+        <v>6.89007578937561</v>
       </c>
       <c r="M76">
-        <v>3.16086110837721</v>
+        <v>3.12003431971726</v>
       </c>
       <c r="N76">
-        <v>34.1548603099649</v>
+        <v>33.7137041769448</v>
       </c>
       <c r="O76">
-        <v>987.95567497497</v>
+        <v>984.208326083309</v>
       </c>
       <c r="P76">
-        <v>132.295207640205</v>
+        <v>130.586436423166</v>
       </c>
     </row>
     <row r="77">
@@ -4349,46 +4349,46 @@
         <v>35171.6385923029</v>
       </c>
       <c r="C77">
-        <v>2144.72070524672</v>
+        <v>2132.90117687633</v>
       </c>
       <c r="D77">
-        <v>734.660364077534</v>
+        <v>730.611660209207</v>
       </c>
       <c r="E77">
-        <v>451.066214201542</v>
+        <v>448.580394065318</v>
       </c>
       <c r="F77">
-        <v>473.425900376041</v>
+        <v>524.559460127319</v>
       </c>
       <c r="G77">
-        <v>98.0589842159046</v>
+        <v>334.674609837373</v>
       </c>
       <c r="H77">
-        <v>303.022774148817</v>
+        <v>301.352819516886</v>
       </c>
       <c r="I77">
-        <v>482.596559932949</v>
+        <v>479.93697646475</v>
       </c>
       <c r="J77">
-        <v>563.753438087836</v>
+        <v>560.646600102321</v>
       </c>
       <c r="K77">
-        <v>213.217082758152</v>
+        <v>212.04204614264</v>
       </c>
       <c r="L77">
-        <v>764.25521639311</v>
+        <v>760.043415672262</v>
       </c>
       <c r="M77">
-        <v>880.963815099865</v>
+        <v>876.108834784534</v>
       </c>
       <c r="N77">
-        <v>545.9971282504461</v>
+        <v>542.988145061298</v>
       </c>
       <c r="O77">
-        <v>36106.312353678</v>
+        <v>35916.5632177563</v>
       </c>
       <c r="P77">
-        <v>10698.4135381099</v>
+        <v>10639.4547179603</v>
       </c>
     </row>
     <row r="78">
@@ -4401,46 +4401,46 @@
         <v>4944.82969818154</v>
       </c>
       <c r="C78">
-        <v>137.774507069366</v>
+        <v>136.464927304387</v>
       </c>
       <c r="D78">
-        <v>18.4422568518048</v>
+        <v>18.2669587730282</v>
       </c>
       <c r="E78">
-        <v>57.4964478320975</v>
+        <v>56.9499302923822</v>
       </c>
       <c r="F78">
-        <v>10.8483863834146</v>
+        <v>17.1924317863795</v>
       </c>
       <c r="G78">
-        <v>13.0180636600975</v>
+        <v>60.1735112523283</v>
       </c>
       <c r="H78">
-        <v>32.5451591502438</v>
+        <v>32.2358095994616</v>
       </c>
       <c r="I78">
-        <v>22.7816114051707</v>
+        <v>22.5650667196231</v>
       </c>
       <c r="J78">
-        <v>114.992895664195</v>
+        <v>113.899860584764</v>
       </c>
       <c r="K78">
-        <v>85.7022524289755</v>
+        <v>84.8876319452489</v>
       </c>
       <c r="L78">
-        <v>49.9025773637072</v>
+        <v>49.4282413858411</v>
       </c>
       <c r="M78">
-        <v>40.1390296186341</v>
+        <v>39.7574985060026</v>
       </c>
       <c r="N78">
-        <v>158.386441197853</v>
+        <v>156.880940050713</v>
       </c>
       <c r="O78">
-        <v>7865.0801279756</v>
+        <v>7820.40740882939</v>
       </c>
       <c r="P78">
-        <v>210.458695838244</v>
+        <v>208.458235409852</v>
       </c>
     </row>
     <row r="79">
@@ -4453,46 +4453,46 @@
         <v>13437.2886295401</v>
       </c>
       <c r="C79">
-        <v>673.732609356233</v>
+        <v>663.076576727969</v>
       </c>
       <c r="D79">
-        <v>330.573814059938</v>
+        <v>325.345322370871</v>
       </c>
       <c r="E79">
-        <v>388.140757933173</v>
+        <v>382.001763733609</v>
       </c>
       <c r="F79">
-        <v>308.768153501895</v>
+        <v>337.36335538721</v>
       </c>
       <c r="G79">
-        <v>58.4391702955564</v>
+        <v>181.742091124625</v>
       </c>
       <c r="H79">
-        <v>216.81056783426</v>
+        <v>213.381402534985</v>
       </c>
       <c r="I79">
-        <v>223.912982987451</v>
+        <v>220.371482962856</v>
       </c>
       <c r="J79">
-        <v>524.208079815364</v>
+        <v>515.916988772807</v>
       </c>
       <c r="K79">
-        <v>167.093661761921</v>
+        <v>164.450839539894</v>
       </c>
       <c r="L79">
-        <v>284.968832549973</v>
+        <v>280.461648044547</v>
       </c>
       <c r="M79">
-        <v>369.824003064416</v>
+        <v>363.974714209101</v>
       </c>
       <c r="N79">
-        <v>363.718418108164</v>
+        <v>357.965697700932</v>
       </c>
       <c r="O79">
-        <v>11496.5672650736</v>
+        <v>11434.4226171061</v>
       </c>
       <c r="P79">
-        <v>2131.72137615432</v>
+        <v>2098.00519228076</v>
       </c>
     </row>
     <row r="80">
@@ -4505,46 +4505,46 @@
         <v>3415.88386260974</v>
       </c>
       <c r="C80">
-        <v>122.895255702527</v>
+        <v>121.67126010986</v>
       </c>
       <c r="D80">
-        <v>234.610865928122</v>
+        <v>232.274220267991</v>
       </c>
       <c r="E80">
-        <v>68.948846588111</v>
+        <v>68.26213916510321</v>
       </c>
       <c r="F80">
-        <v>13.9630076256325</v>
+        <v>15.9735692485174</v>
       </c>
       <c r="G80">
-        <v>7.12586906949154</v>
+        <v>21.2676011469166</v>
       </c>
       <c r="H80">
-        <v>27.2446112397578</v>
+        <v>26.973264035256</v>
       </c>
       <c r="I80">
-        <v>47.0861721172075</v>
+        <v>46.6172096107413</v>
       </c>
       <c r="J80">
-        <v>98.9883691971021</v>
+        <v>98.00247818829131</v>
       </c>
       <c r="K80">
-        <v>24.2533631214461</v>
+        <v>24.0118077465187</v>
       </c>
       <c r="L80">
-        <v>31.8065533506964</v>
+        <v>31.4897707304345</v>
       </c>
       <c r="M80">
-        <v>42.0622611849079</v>
+        <v>41.6433351489624</v>
       </c>
       <c r="N80">
-        <v>56.4410407497652</v>
+        <v>55.8789068843985</v>
       </c>
       <c r="O80">
-        <v>3472.50413796438</v>
+        <v>3469.75195614861</v>
       </c>
       <c r="P80">
-        <v>591.100656151777</v>
+        <v>585.213491559321</v>
       </c>
     </row>
     <row r="81">
@@ -4557,46 +4557,46 @@
         <v>7190.89780490811</v>
       </c>
       <c r="C81">
-        <v>180.712183892214</v>
+        <v>178.910382075667</v>
       </c>
       <c r="D81">
-        <v>392.770252999726</v>
+        <v>388.854113312305</v>
       </c>
       <c r="E81">
-        <v>104.766784142401</v>
+        <v>103.722200551434</v>
       </c>
       <c r="F81">
-        <v>91.8287174260205</v>
+        <v>99.0359565506165</v>
       </c>
       <c r="G81">
-        <v>11.6758163050267</v>
+        <v>46.8624400081781</v>
       </c>
       <c r="H81">
-        <v>47.0188278229452</v>
+        <v>46.550023741457</v>
       </c>
       <c r="I81">
-        <v>63.6384582391093</v>
+        <v>63.0039471221062</v>
       </c>
       <c r="J81">
-        <v>189.127186634576</v>
+        <v>187.241482521565</v>
       </c>
       <c r="K81">
-        <v>84.3604024921746</v>
+        <v>83.51928197013081</v>
       </c>
       <c r="L81">
-        <v>129.275479629529</v>
+        <v>127.986530600113</v>
       </c>
       <c r="M81">
-        <v>205.115691845063</v>
+        <v>203.070573368772</v>
       </c>
       <c r="N81">
-        <v>115.91666277603</v>
+        <v>114.76090864225</v>
       </c>
       <c r="O81">
-        <v>4317.00159436576</v>
+        <v>4316.23900226435</v>
       </c>
       <c r="P81">
-        <v>2662.71724275176</v>
+        <v>2636.16845859338</v>
       </c>
     </row>
     <row r="82">
@@ -4606,49 +4606,49 @@
         </is>
       </c>
       <c r="B82">
-        <v>126982.96495497</v>
+        <v>126987.563870183</v>
       </c>
       <c r="C82">
-        <v>6382.26879947019</v>
+        <v>6314.17020696175</v>
       </c>
       <c r="D82">
-        <v>5404.06023767748</v>
+        <v>5343.25329579581</v>
       </c>
       <c r="E82">
-        <v>1993.91269930294</v>
+        <v>1972.15948815116</v>
       </c>
       <c r="F82">
-        <v>1465.27992856682</v>
+        <v>2398.19118693723</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>1417.66558625576</v>
       </c>
       <c r="H82">
-        <v>1027.50815130009</v>
+        <v>1016.32587863265</v>
       </c>
       <c r="I82">
-        <v>1304.0554679724</v>
+        <v>1290.15430835247</v>
       </c>
       <c r="J82">
-        <v>3109.81412773093</v>
+        <v>3075.64437206382</v>
       </c>
       <c r="K82">
-        <v>1185.63731146859</v>
+        <v>1172.80777832189</v>
       </c>
       <c r="L82">
-        <v>2887.00690972883</v>
+        <v>2856.1715634667</v>
       </c>
       <c r="M82">
-        <v>1001.75746576425</v>
+        <v>991.404369476238</v>
       </c>
       <c r="N82">
-        <v>1049.53021260953</v>
+        <v>1038.60054076768</v>
       </c>
       <c r="O82">
-        <v>128856.168789969</v>
+        <v>128290.673319739</v>
       </c>
       <c r="P82">
-        <v>25965.9238077972</v>
+        <v>25697.2406519537</v>
       </c>
     </row>
     <row r="83">
@@ -4661,46 +4661,46 @@
         <v>42538.3430212137</v>
       </c>
       <c r="C83">
-        <v>1340.09596267282</v>
+        <v>1325.97918989649</v>
       </c>
       <c r="D83">
-        <v>679.945194800578</v>
+        <v>672.782549674616</v>
       </c>
       <c r="E83">
-        <v>902.935537589059</v>
+        <v>893.423878595327</v>
       </c>
       <c r="F83">
-        <v>1057.06040193638</v>
+        <v>1258.77200991032</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>538.152278785269</v>
       </c>
       <c r="H83">
-        <v>256.464108374711</v>
+        <v>253.762476816931</v>
       </c>
       <c r="I83">
-        <v>715.403727810763</v>
+        <v>707.867557155713</v>
       </c>
       <c r="J83">
-        <v>1520.35586024289</v>
+        <v>1504.3402025467</v>
       </c>
       <c r="K83">
-        <v>1450.18530064447</v>
+        <v>1434.90883019533</v>
       </c>
       <c r="L83">
-        <v>762.68107578106</v>
+        <v>754.64687841945</v>
       </c>
       <c r="M83">
-        <v>853.923997777</v>
+        <v>844.928633727971</v>
       </c>
       <c r="N83">
-        <v>170.385131501802</v>
+        <v>168.590268855489</v>
       </c>
       <c r="O83">
-        <v>49232.9557049389</v>
+        <v>48714.3283318606</v>
       </c>
       <c r="P83">
-        <v>12349.4609586516</v>
+        <v>12219.3698762818</v>
       </c>
     </row>
     <row r="84">
@@ -4713,46 +4713,46 @@
         <v>1740.64486924476</v>
       </c>
       <c r="C84">
-        <v>53.7755831952834</v>
+        <v>53.1390092209037</v>
       </c>
       <c r="D84">
-        <v>48.5167319547287</v>
+        <v>47.9424101705803</v>
       </c>
       <c r="E84">
-        <v>53.5585917606003</v>
+        <v>52.9245864445554</v>
       </c>
       <c r="F84">
-        <v>8.94770563016702</v>
+        <v>12.2220982518528</v>
       </c>
       <c r="G84">
-        <v>2.7825960447595</v>
+        <v>14.1645163434785</v>
       </c>
       <c r="H84">
-        <v>39.5562621225215</v>
+        <v>39.0880108178449</v>
       </c>
       <c r="I84">
-        <v>23.1925551070092</v>
+        <v>22.9180108602853</v>
       </c>
       <c r="J84">
-        <v>122.306583949016</v>
+        <v>120.858767233491</v>
       </c>
       <c r="K84">
-        <v>53.8649326095647</v>
+        <v>53.2273009523413</v>
       </c>
       <c r="L84">
-        <v>58.5111021521906</v>
+        <v>57.818470987093</v>
       </c>
       <c r="M84">
-        <v>85.3669832447318</v>
+        <v>84.3564428363171</v>
       </c>
       <c r="N84">
-        <v>31.2850592004841</v>
+        <v>30.9147191076276</v>
       </c>
       <c r="O84">
-        <v>1894.8457928649</v>
+        <v>1888.0303850602</v>
       </c>
       <c r="P84">
-        <v>92.43835117499221</v>
+        <v>91.3441027243733</v>
       </c>
     </row>
     <row r="85">
@@ -4765,46 +4765,46 @@
         <v>713.654174139242</v>
       </c>
       <c r="C85">
-        <v>17.8249953974538</v>
+        <v>17.5701788477598</v>
       </c>
       <c r="D85">
-        <v>11.7649409223543</v>
+        <v>11.5967556529423</v>
       </c>
       <c r="E85">
-        <v>19.3677565184041</v>
+        <v>19.0908854852683</v>
       </c>
       <c r="F85">
-        <v>2.88574022623786</v>
+        <v>2.87730824219229</v>
       </c>
       <c r="G85">
-        <v>8.15776563955702</v>
+        <v>15.228947046128</v>
       </c>
       <c r="H85">
-        <v>15.016948177307</v>
+        <v>14.8022739607839</v>
       </c>
       <c r="I85">
-        <v>7.82479561345266</v>
+        <v>7.71293654275881</v>
       </c>
       <c r="J85">
-        <v>42.9309353657232</v>
+        <v>42.3172177977178</v>
       </c>
       <c r="K85">
-        <v>14.5174931381505</v>
+        <v>14.30995886231</v>
       </c>
       <c r="L85">
-        <v>26.9483741127135</v>
+        <v>26.5631346465509</v>
       </c>
       <c r="M85">
-        <v>16.2045412704126</v>
+        <v>15.9728898615998</v>
       </c>
       <c r="N85">
-        <v>10.366466812716</v>
+        <v>10.2182733772152</v>
       </c>
       <c r="O85">
-        <v>670.834711592471</v>
+        <v>667.776199570088</v>
       </c>
       <c r="P85">
-        <v>97.338237631177</v>
+        <v>95.94674252481531</v>
       </c>
     </row>
     <row r="86">
@@ -4817,46 +4817,46 @@
         <v>2770.34511088539</v>
       </c>
       <c r="C86">
-        <v>60.2931604273402</v>
+        <v>59.6842752793981</v>
       </c>
       <c r="D86">
-        <v>8.932320063309669</v>
+        <v>8.84211485620712</v>
       </c>
       <c r="E86">
-        <v>81.5074205777007</v>
+        <v>80.68429806288999</v>
       </c>
       <c r="F86">
-        <v>10.0488600712234</v>
+        <v>13.2631722843107</v>
       </c>
       <c r="G86">
-        <v>12.2819400870508</v>
+        <v>34.2631950678026</v>
       </c>
       <c r="H86">
-        <v>23.4473401661879</v>
+        <v>23.2105514975437</v>
       </c>
       <c r="I86">
-        <v>20.0977201424468</v>
+        <v>19.894758426466</v>
       </c>
       <c r="J86">
-        <v>117.236700830939</v>
+        <v>116.052757487718</v>
       </c>
       <c r="K86">
-        <v>85.97358060935549</v>
+        <v>85.1053554909936</v>
       </c>
       <c r="L86">
-        <v>77.04126054604591</v>
+        <v>76.2632406347864</v>
       </c>
       <c r="M86">
-        <v>84.8570406014418</v>
+        <v>84.0000911339677</v>
       </c>
       <c r="N86">
-        <v>31.2631202215838</v>
+        <v>30.9474019967249</v>
       </c>
       <c r="O86">
-        <v>4191.49118970806</v>
+        <v>4173.47821212976</v>
       </c>
       <c r="P86">
-        <v>120.58632085468</v>
+        <v>119.368550558796</v>
       </c>
     </row>
     <row r="87">
@@ -4866,49 +4866,49 @@
         </is>
       </c>
       <c r="B87">
-        <v>27107.6644148115</v>
+        <v>27107.6644148114</v>
       </c>
       <c r="C87">
-        <v>662.710642450015</v>
+        <v>658.489920965711</v>
       </c>
       <c r="D87">
-        <v>1575.32491072138</v>
+        <v>1565.29186270685</v>
       </c>
       <c r="E87">
-        <v>350.283805437082</v>
+        <v>348.05289153815</v>
       </c>
       <c r="F87">
-        <v>158.004408769234</v>
+        <v>169.198418905699</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>158.334773842975</v>
       </c>
       <c r="H87">
-        <v>279.044284735399</v>
+        <v>277.267086464823</v>
       </c>
       <c r="I87">
-        <v>346.742304586342</v>
+        <v>344.533946064931</v>
       </c>
       <c r="J87">
-        <v>638.779623543408</v>
+        <v>634.711315735859</v>
       </c>
       <c r="K87">
-        <v>444.455532604479</v>
+        <v>441.624850712385</v>
       </c>
       <c r="L87">
-        <v>242.583394397813</v>
+        <v>241.038410993464</v>
       </c>
       <c r="M87">
-        <v>377.745969928783</v>
+        <v>375.340152926972</v>
       </c>
       <c r="N87">
-        <v>364.859312526929</v>
+        <v>362.535569039971</v>
       </c>
       <c r="O87">
-        <v>15778.5329003688</v>
+        <v>15686.9828049787</v>
       </c>
       <c r="P87">
-        <v>6961.18423920212</v>
+        <v>6916.84932439529</v>
       </c>
     </row>
     <row r="88">
@@ -4921,46 +4921,46 @@
         <v>8274.601130730051</v>
       </c>
       <c r="C88">
-        <v>123.874857909146</v>
+        <v>120.322732956613</v>
       </c>
       <c r="D88">
-        <v>170.868006295715</v>
+        <v>165.968347729021</v>
       </c>
       <c r="E88">
-        <v>110.379419184072</v>
+        <v>107.214277397049</v>
       </c>
       <c r="F88">
-        <v>6.36607477904892</v>
+        <v>26.8166200090428</v>
       </c>
       <c r="G88">
-        <v>22.0842013214504</v>
+        <v>118.554057826356</v>
       </c>
       <c r="H88">
-        <v>136.469449067495</v>
+        <v>132.556172850891</v>
       </c>
       <c r="I88">
-        <v>81.4736008481275</v>
+        <v>79.1373365292002</v>
       </c>
       <c r="J88">
-        <v>393.361360113709</v>
+        <v>382.081680554787</v>
       </c>
       <c r="K88">
-        <v>258.44024280152</v>
+        <v>251.029440878605</v>
       </c>
       <c r="L88">
-        <v>741.165297650315</v>
+        <v>719.912302553715</v>
       </c>
       <c r="M88">
-        <v>136.258312919044</v>
+        <v>132.35109105434</v>
       </c>
       <c r="N88">
-        <v>22.7182495733135</v>
+        <v>22.0668013089173</v>
       </c>
       <c r="O88">
-        <v>8743.053215986931</v>
+        <v>8710.46213894197</v>
       </c>
       <c r="P88">
-        <v>765.8458337912</v>
+        <v>743.88512165058</v>
       </c>
     </row>
   </sheetData>
